--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Vucskics Olivér\sql2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60CDF9-0D82-4554-8CEB-DC9856263D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10291215-B8A7-4B38-AF54-98C95BCA6E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>cím</t>
   </si>
@@ -79,6 +79,103 @@
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t>Elijah Wood,Ian McKellen,Orlando Bloom
+Sean Bean,Sean Astin,Viggo Mortensen</t>
+  </si>
+  <si>
+    <t>akció,kaland,dráma,fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>178p</t>
+  </si>
+  <si>
+    <t>angol</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>A keresztapa</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>175p</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Marlon Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>krimi,dráma</t>
+  </si>
+  <si>
+    <t>Hetedik</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Gwyneth Paltrow,Kevin Spacey</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>Darius Khondji</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t>127p</t>
+  </si>
+  <si>
+    <t>krimi,dráma,rejtély</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>104p</t>
+  </si>
+  <si>
+    <t>vígjáték,krimi</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Brad Pitt ,Jason Statham, Vinnie Jones</t>
+  </si>
+  <si>
+    <t>Tim Maurice-Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Murphy	</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
   </si>
 </sst>
 </file>
@@ -122,9 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -439,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904ED9CF-FE4B-43BF-8DEB-1D2A6957EC24}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,11 +551,11 @@
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="70.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
@@ -520,9 +620,159 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1972</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.imdb.com/name/nm0000704/?ref_=tt_cl_t_1" xr:uid="{EEC46E27-D189-422B-86CB-63D2E0A0A52C}"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://www.imdb.com/name/nm0006290/?ref_=ttfc_fc_cr14" xr:uid="{D5491A9A-9729-417A-842B-9ED30EBB9108}"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://www.imdb.com/name/nm0000008/?ref_=ttfc_fc_cl_t1" xr:uid="{5EBAEB01-F26B-4921-95EE-E1AAD1BD8FED}"/>
+    <hyperlink ref="I3" r:id="rId4" display="https://www.imdb.com/name/nm0000065/?ref_=ttfc_fc_cr4" xr:uid="{35EC646A-A08D-4394-A5A2-56300B820A77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Vucskics Olivér\sql2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10291215-B8A7-4B38-AF54-98C95BCA6E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85948AA-3307-478F-8409-A81DA590A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="1NF" sheetId="1" r:id="rId1"/>
+    <sheet name="2NF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
   <si>
     <t>cím</t>
   </si>
@@ -72,19 +73,12 @@
     <t>forgalmazó</t>
   </si>
   <si>
-    <t>New Line Cinema, Warner</t>
-  </si>
-  <si>
     <t>Peter Jackson</t>
   </si>
   <si>
     <t>Andrew Lesnie</t>
   </si>
   <si>
-    <t>Elijah Wood,Ian McKellen,Orlando Bloom
-Sean Bean,Sean Astin,Viggo Mortensen</t>
-  </si>
-  <si>
     <t>akció,kaland,dráma,fantasy</t>
   </si>
   <si>
@@ -176,6 +170,48 @@
   </si>
   <si>
     <t>Columbia Pictures</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>New Line Cinema</t>
+  </si>
+  <si>
+    <t>Elijah Wood</t>
+  </si>
+  <si>
+    <t>Ian McKellen</t>
+  </si>
+  <si>
+    <t>Orlando Bloom</t>
+  </si>
+  <si>
+    <t>Sean Bean</t>
+  </si>
+  <si>
+    <t>Sean Astin</t>
+  </si>
+  <si>
+    <t>Viggo Mortensen</t>
+  </si>
+  <si>
+    <t>akció</t>
+  </si>
+  <si>
+    <t>dráma</t>
+  </si>
+  <si>
+    <t>kaland</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>KijátszottBenne</t>
+  </si>
+  <si>
+    <t>színész</t>
   </si>
 </sst>
 </file>
@@ -207,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,16 +251,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -539,22 +593,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904ED9CF-FE4B-43BF-8DEB-1D2A6957EC24}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="70.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
@@ -612,167 +666,824 @@
         <v>2001</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1972</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>1995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468A2E2D-FB88-442F-82D3-F1E5337C346B}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.imdb.com/name/nm0000704/?ref_=tt_cl_t_1" xr:uid="{EEC46E27-D189-422B-86CB-63D2E0A0A52C}"/>
-    <hyperlink ref="I2" r:id="rId2" display="https://www.imdb.com/name/nm0006290/?ref_=ttfc_fc_cr14" xr:uid="{D5491A9A-9729-417A-842B-9ED30EBB9108}"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://www.imdb.com/name/nm0000008/?ref_=ttfc_fc_cl_t1" xr:uid="{5EBAEB01-F26B-4921-95EE-E1AAD1BD8FED}"/>
-    <hyperlink ref="I3" r:id="rId4" display="https://www.imdb.com/name/nm0000065/?ref_=ttfc_fc_cr4" xr:uid="{35EC646A-A08D-4394-A5A2-56300B820A77}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Vucskics Olivér\sql2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85948AA-3307-478F-8409-A81DA590A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E798A-D747-406A-BD0B-39D643EF8F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
   </bookViews>
   <sheets>
     <sheet name="1NF" sheetId="1" r:id="rId1"/>
     <sheet name="2NF" sheetId="2" r:id="rId2"/>
+    <sheet name="3NF " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="65">
   <si>
     <t>cím</t>
   </si>
@@ -212,6 +213,15 @@
   </si>
   <si>
     <t>színész</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nyelv</t>
+  </si>
+  <si>
+    <t>ember</t>
   </si>
 </sst>
 </file>
@@ -596,7 +606,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,14 +1290,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468A2E2D-FB88-442F-82D3-F1E5337C346B}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -1486,4 +1496,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EBF2C3-662F-44C0-BB24-7687519FC05E}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="G23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="G24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="G26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Vucskics Olivér\sql2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E798A-D747-406A-BD0B-39D643EF8F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A52D5-62C3-447E-9CD3-8FEB95890E4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{6CA2A3B7-F597-45EC-A995-400E799E9D79}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="66">
   <si>
     <t>cím</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>ember</t>
+  </si>
+  <si>
+    <t>szerep</t>
   </si>
 </sst>
 </file>
@@ -1500,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EBF2C3-662F-44C0-BB24-7687519FC05E}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,11 +1515,13 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1569,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1579,21 +1584,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1612,18 +1617,37 @@
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1631,12 +1655,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1644,12 +1668,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="F22" t="s">
         <v>62</v>
@@ -1657,52 +1681,67 @@
       <c r="G22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="G23" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="G24" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="G25" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="G26" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G27" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G31" s="4" t="s">
         <v>18</v>
       </c>
